--- a/docs/Developer Tasks Iteration 3.xlsx
+++ b/docs/Developer Tasks Iteration 3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>Developer Task</t>
   </si>
@@ -50,21 +50,12 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>3 hours</t>
-  </si>
-  <si>
     <t>1 hour</t>
   </si>
   <si>
     <t>1 hours</t>
   </si>
   <si>
-    <t>15 min</t>
-  </si>
-  <si>
-    <t>Add Solve Screen</t>
-  </si>
-  <si>
     <t>Known Defects TBF (To Be Fixed)</t>
   </si>
   <si>
@@ -140,155 +131,50 @@
     <t>Column5</t>
   </si>
   <si>
-    <t>Time Taken</t>
-  </si>
-  <si>
-    <t>Open/Closed/In Progress</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Add transition from solving to search screen</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Can now select a puzzle from list and press "Play puzzle" and you will be taken to a solve screen</t>
-  </si>
-  <si>
-    <t>Create User Class</t>
-  </si>
-  <si>
-    <t>Now can add a user and manipulate a user object</t>
-  </si>
-  <si>
-    <t>Enumerate Categories and Difficulties</t>
-  </si>
-  <si>
-    <t>Categories and Difficulties are now enumerated classes instead of hard coded string</t>
-  </si>
-  <si>
-    <t>Solve screen hooked up to play button so you can now solve puzzle</t>
-  </si>
-  <si>
-    <t>Solve GUI issues addressed in It 1 mark</t>
-  </si>
-  <si>
-    <t>1 hour 30 min</t>
-  </si>
-  <si>
-    <t>Scrolling in Cryptogram widget</t>
-  </si>
-  <si>
-    <t>Max text limit set for plaintext, scrolls if it is longer than the disply box</t>
-  </si>
-  <si>
-    <t>Implement Find Screen Filters</t>
-  </si>
-  <si>
-    <t>6 hours</t>
-  </si>
-  <si>
-    <t>Filtering puzzles on find screen now works</t>
-  </si>
-  <si>
-    <t>Play Selected Puzzle Bug</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Business Layer Login</t>
-  </si>
-  <si>
-    <t>Login In Logic Added</t>
-  </si>
-  <si>
-    <t>Save Button Issue</t>
-  </si>
-  <si>
-    <t>Word Search</t>
-  </si>
-  <si>
-    <t>4 days</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Pushed to Iteration 3 (hopefully!)</t>
-  </si>
-  <si>
-    <t>Play/Edit/Delete Buttons</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>Play is there, edit and delete are pushed to iteration 3</t>
-  </si>
-  <si>
-    <t>Connect users to puzzles</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>Funny Tabbing</t>
-  </si>
-  <si>
-    <t>Pushed to It 3</t>
-  </si>
-  <si>
-    <t>Login Screen GUI</t>
-  </si>
-  <si>
-    <t>Sign up Screen GUI</t>
-  </si>
-  <si>
-    <t>My puzzles button</t>
-  </si>
-  <si>
-    <t>My Puzzles button filters by user and takes you to find screen</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>1 days</t>
-  </si>
-  <si>
-    <t>7 hours 30 min</t>
-  </si>
-  <si>
-    <t>Database added! w00t</t>
-  </si>
-  <si>
-    <t>Database Error (Missing Single Quotes on strings)</t>
-  </si>
-  <si>
-    <t>General Refactoring and Bugs</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>13 hours</t>
-  </si>
-  <si>
-    <t>This is ongoing</t>
+    <t>Edit Button</t>
+  </si>
+  <si>
+    <t>Funcationality for Edit Button</t>
+  </si>
+  <si>
+    <t>Delete Button</t>
+  </si>
+  <si>
+    <t>Funcationality for Delete Button</t>
+  </si>
+  <si>
+    <t>Embelish Solved/Not Solved Dialog Boxes</t>
+  </si>
+  <si>
+    <t>Acceptance Tests</t>
+  </si>
+  <si>
+    <t>Integration Tests</t>
+  </si>
+  <si>
+    <t>Random Number Generator Stub</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,14 +185,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -347,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -381,15 +259,6 @@
         <color theme="0"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
@@ -408,59 +277,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,14 +308,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -894,151 +724,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.59999389629810485"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1110,34 +795,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F9">
   <autoFilter ref="A1:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" totalsRowDxfId="21"/>
-    <tableColumn id="2" name="Known Defects TBF (To Be Fixed)" totalsRowDxfId="20"/>
-    <tableColumn id="3" name="Column2" totalsRowDxfId="19"/>
-    <tableColumn id="4" name="Column3" totalsRowDxfId="18"/>
-    <tableColumn id="5" name="Column4" totalsRowDxfId="17"/>
-    <tableColumn id="6" name="Column5" totalsRowFunction="count" totalsRowDxfId="16"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" totalsRowDxfId="15"/>
+    <tableColumn id="2" name="Known Defects TBF (To Be Fixed)" totalsRowDxfId="14"/>
+    <tableColumn id="3" name="Column2" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Column3" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="Column4" totalsRowDxfId="11"/>
+    <tableColumn id="6" name="Column5" totalsRowFunction="count" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A24:E32" headerRowDxfId="15">
-  <autoFilter ref="A24:E32"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="#" totalsRowLabel="Total" dataDxfId="14"/>
-    <tableColumn id="2" name="Known Defects TBF (To Be Fixed)" totalsRowDxfId="13"/>
-    <tableColumn id="4" name="Open/Closed/In Progress" totalsRowDxfId="12"/>
-    <tableColumn id="5" name="Time Taken" totalsRowDxfId="11"/>
-    <tableColumn id="6" name="Comments" totalsRowFunction="count" totalsRowDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="A1:F22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:F11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A1:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="#" dataDxfId="5"/>
     <tableColumn id="2" name="Developer Task" dataDxfId="4"/>
@@ -1449,183 +1120,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="75">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="150">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="120">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="150">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1651,512 +1322,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45.75" thickTop="1">
-      <c r="A2" s="15">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="15">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>63</v>
+      <c r="F9" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="16">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15">
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="15"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="A24" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickTop="1">
-      <c r="A25" s="19">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="19">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="19">
-        <v>3</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="19">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="19">
-        <v>5</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="19">
-        <v>6</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="19">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="19">
-        <v>8</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>